--- a/db/dummydata/6_vessel_schedules.xlsx
+++ b/db/dummydata/6_vessel_schedules.xlsx
@@ -299,15 +299,15 @@
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E76" si="1">F2-4</f>
-        <v>43273</v>
+        <v>43309</v>
       </c>
       <c r="F2" s="6">
-        <f>TODAY()</f>
-        <v>43277</v>
+        <f t="shared" ref="F2:F76" si="2">TODAY() + 30</f>
+        <v>43313</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G56" si="2">F2+30</f>
-        <v>43307</v>
+        <f t="shared" ref="G2:G56" si="3">F2+30</f>
+        <v>43343</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>12</v>
@@ -329,15 +329,15 @@
       </c>
       <c r="E3" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F76" si="3">TODAY() + 1</f>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>12</v>
@@ -359,15 +359,15 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -389,15 +389,15 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>12</v>
@@ -419,15 +419,15 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>12</v>
@@ -449,15 +449,15 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>12</v>
@@ -479,15 +479,15 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>12</v>
@@ -509,15 +509,15 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>12</v>
@@ -539,15 +539,15 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>12</v>
@@ -569,15 +569,15 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>12</v>
@@ -599,15 +599,15 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>12</v>
@@ -629,15 +629,15 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>12</v>
@@ -659,15 +659,15 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>12</v>
@@ -689,15 +689,15 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>12</v>
@@ -719,15 +719,15 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>12</v>
@@ -749,15 +749,15 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>12</v>
@@ -779,15 +779,15 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>12</v>
@@ -809,15 +809,15 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>12</v>
@@ -839,15 +839,15 @@
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>12</v>
@@ -869,15 +869,15 @@
       </c>
       <c r="E21" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>12</v>
@@ -899,15 +899,15 @@
       </c>
       <c r="E22" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>12</v>
@@ -929,15 +929,15 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>12</v>
@@ -959,15 +959,15 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>12</v>
@@ -989,15 +989,15 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>12</v>
@@ -1019,15 +1019,15 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>12</v>
@@ -1049,15 +1049,15 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>12</v>
@@ -1078,15 +1078,15 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>12</v>
@@ -1107,15 +1107,15 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>12</v>
@@ -1136,15 +1136,15 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>12</v>
@@ -1165,15 +1165,15 @@
       </c>
       <c r="E31" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>12</v>
@@ -1194,15 +1194,15 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>12</v>
@@ -1223,15 +1223,15 @@
       </c>
       <c r="E33" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>12</v>
@@ -1252,15 +1252,15 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>12</v>
@@ -1281,15 +1281,15 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>12</v>
@@ -1310,15 +1310,15 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>12</v>
@@ -1339,15 +1339,15 @@
       </c>
       <c r="E37" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>12</v>
@@ -1368,15 +1368,15 @@
       </c>
       <c r="E38" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>12</v>
@@ -1397,15 +1397,15 @@
       </c>
       <c r="E39" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>12</v>
@@ -1426,15 +1426,15 @@
       </c>
       <c r="E40" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>12</v>
@@ -1455,15 +1455,15 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>12</v>
@@ -1484,15 +1484,15 @@
       </c>
       <c r="E42" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>12</v>
@@ -1513,15 +1513,15 @@
       </c>
       <c r="E43" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>12</v>
@@ -1542,15 +1542,15 @@
       </c>
       <c r="E44" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>12</v>
@@ -1571,15 +1571,15 @@
       </c>
       <c r="E45" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>12</v>
@@ -1600,15 +1600,15 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>12</v>
@@ -1629,15 +1629,15 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>12</v>
@@ -1658,15 +1658,15 @@
       </c>
       <c r="E48" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>12</v>
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E49" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>12</v>
@@ -1716,15 +1716,15 @@
       </c>
       <c r="E50" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>12</v>
@@ -1745,15 +1745,15 @@
       </c>
       <c r="E51" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>12</v>
@@ -1774,15 +1774,15 @@
       </c>
       <c r="E52" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>12</v>
@@ -1803,15 +1803,15 @@
       </c>
       <c r="E53" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>12</v>
@@ -1832,15 +1832,15 @@
       </c>
       <c r="E54" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>12</v>
@@ -1861,15 +1861,15 @@
       </c>
       <c r="E55" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>12</v>
@@ -1890,15 +1890,15 @@
       </c>
       <c r="E56" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="2"/>
-        <v>43308</v>
+        <f t="shared" si="3"/>
+        <v>43343</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>12</v>
@@ -1919,15 +1919,15 @@
       </c>
       <c r="E57" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" ref="G57:G66" si="4">F57+1</f>
-        <v>43279</v>
+        <v>43314</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>12</v>
@@ -1948,15 +1948,15 @@
       </c>
       <c r="E58" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="4"/>
-        <v>43279</v>
+        <v>43314</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>12</v>
@@ -1977,15 +1977,15 @@
       </c>
       <c r="E59" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="4"/>
-        <v>43279</v>
+        <v>43314</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>12</v>
@@ -2006,15 +2006,15 @@
       </c>
       <c r="E60" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="4"/>
-        <v>43279</v>
+        <v>43314</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>12</v>
@@ -2035,15 +2035,15 @@
       </c>
       <c r="E61" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="4"/>
-        <v>43279</v>
+        <v>43314</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>12</v>
@@ -2064,15 +2064,15 @@
       </c>
       <c r="E62" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="4"/>
-        <v>43279</v>
+        <v>43314</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>12</v>
@@ -2093,15 +2093,15 @@
       </c>
       <c r="E63" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="4"/>
-        <v>43279</v>
+        <v>43314</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>12</v>
@@ -2122,15 +2122,15 @@
       </c>
       <c r="E64" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="4"/>
-        <v>43279</v>
+        <v>43314</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>12</v>
@@ -2151,15 +2151,15 @@
       </c>
       <c r="E65" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="4"/>
-        <v>43279</v>
+        <v>43314</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>12</v>
@@ -2180,15 +2180,15 @@
       </c>
       <c r="E66" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="4"/>
-        <v>43279</v>
+        <v>43314</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>12</v>
@@ -2209,15 +2209,15 @@
       </c>
       <c r="E67" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" ref="G67:G76" si="5">F67+15</f>
-        <v>43293</v>
+        <v>43328</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>12</v>
@@ -2238,15 +2238,15 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" si="5"/>
-        <v>43293</v>
+        <v>43328</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>12</v>
@@ -2267,15 +2267,15 @@
       </c>
       <c r="E69" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="5"/>
-        <v>43293</v>
+        <v>43328</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>12</v>
@@ -2296,15 +2296,15 @@
       </c>
       <c r="E70" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="5"/>
-        <v>43293</v>
+        <v>43328</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>12</v>
@@ -2325,15 +2325,15 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="5"/>
-        <v>43293</v>
+        <v>43328</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>12</v>
@@ -2354,15 +2354,15 @@
       </c>
       <c r="E72" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="5"/>
-        <v>43293</v>
+        <v>43328</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>12</v>
@@ -2383,15 +2383,15 @@
       </c>
       <c r="E73" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="5"/>
-        <v>43293</v>
+        <v>43328</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>12</v>
@@ -2412,15 +2412,15 @@
       </c>
       <c r="E74" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="5"/>
-        <v>43293</v>
+        <v>43328</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>12</v>
@@ -2441,15 +2441,15 @@
       </c>
       <c r="E75" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="5"/>
-        <v>43293</v>
+        <v>43328</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>12</v>
@@ -2470,15 +2470,15 @@
       </c>
       <c r="E76" s="5">
         <f t="shared" si="1"/>
-        <v>43274</v>
+        <v>43309</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="3"/>
-        <v>43278</v>
+        <f t="shared" si="2"/>
+        <v>43313</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="5"/>
-        <v>43293</v>
+        <v>43328</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>12</v>
